--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlen.calero\source\repos\App-para-Buss-Interprovincial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A41855-BA11-4148-996B-9A6B7A22D0C0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DEC2F8-4112-4A3A-8020-FBE317A50D4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20655" windowHeight="11715" xr2:uid="{310674FC-FCD8-4837-9B86-29D646DC29FC}"/>
   </bookViews>
